--- a/Documentation/Manual/ListOfPlugins.xlsx
+++ b/Documentation/Manual/ListOfPlugins.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27022"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ries/git/SMAP/Documentation/Manual/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22580" yWindow="3760" windowWidth="21400" windowHeight="24580" tabRatio="500"/>
+    <workbookView xWindow="220" yWindow="2300" windowWidth="21400" windowHeight="24580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -501,9 +506,6 @@
     <t>Calibrate cameras</t>
   </si>
   <si>
-    <t>Micromanger plugin to determine gain an offset</t>
-  </si>
-  <si>
     <t>lineprofile</t>
   </si>
   <si>
@@ -841,6 +843,9 @@
   </si>
   <si>
     <t>reconstruct a movie with running average from live-cell data</t>
+  </si>
+  <si>
+    <t>Micromanger script to determine gain an offset</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1195,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1200,24 +1205,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="1" customWidth="1"/>
     <col min="4" max="4" width="45.83203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="1"/>
     <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1226,17 +1231,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30">
+    <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1247,7 +1252,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1258,7 +1263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1269,12 +1274,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1285,7 +1290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1299,7 +1304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
+    <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1313,7 +1318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30">
+    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1324,7 +1329,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1335,12 +1340,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -1351,7 +1356,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -1368,7 +1373,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1376,7 +1381,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>11</v>
       </c>
@@ -1387,7 +1392,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30">
+    <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -1398,12 +1403,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>13</v>
       </c>
@@ -1414,7 +1419,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>14</v>
       </c>
@@ -1431,7 +1436,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>15</v>
       </c>
@@ -1448,7 +1453,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>16</v>
       </c>
@@ -1465,7 +1470,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30">
+    <row r="24" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>17</v>
       </c>
@@ -1482,12 +1487,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C25" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30">
+    <row r="26" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>18</v>
       </c>
@@ -1498,7 +1503,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30">
+    <row r="27" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>19</v>
       </c>
@@ -1509,7 +1514,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>20</v>
       </c>
@@ -1520,7 +1525,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30">
+    <row r="29" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>21</v>
       </c>
@@ -1531,7 +1536,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30">
+    <row r="30" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C30" s="2" t="s">
         <v>50</v>
       </c>
@@ -1539,7 +1544,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="30">
+    <row r="31" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>22</v>
       </c>
@@ -1550,7 +1555,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="30">
+    <row r="32" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>23</v>
       </c>
@@ -1561,7 +1566,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="30">
+    <row r="33" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>24</v>
       </c>
@@ -1572,12 +1577,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C34" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>25</v>
       </c>
@@ -1588,7 +1593,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>26</v>
       </c>
@@ -1599,32 +1604,32 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C37" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C41" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C42" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30">
+    <row r="43" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>75</v>
       </c>
@@ -1632,7 +1637,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>77</v>
       </c>
@@ -1640,7 +1645,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>79</v>
       </c>
@@ -1648,7 +1653,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>81</v>
       </c>
@@ -1656,7 +1661,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="45">
+    <row r="47" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>83</v>
       </c>
@@ -1664,7 +1669,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>84</v>
       </c>
@@ -1672,7 +1677,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="3:6">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>86</v>
       </c>
@@ -1680,12 +1685,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="3:6">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="3:6">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>91</v>
       </c>
@@ -1693,7 +1698,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="3:6">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>93</v>
       </c>
@@ -1701,7 +1706,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="3:6">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>95</v>
       </c>
@@ -1709,7 +1714,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="3:6">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>97</v>
       </c>
@@ -1717,7 +1722,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="3:6">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>99</v>
       </c>
@@ -1725,17 +1730,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="3:6">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C57" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="3:6">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C58" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="3:6" ht="45">
+    <row r="59" spans="3:6" ht="48" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>103</v>
       </c>
@@ -1743,7 +1748,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="3:6" ht="30">
+    <row r="60" spans="3:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>105</v>
       </c>
@@ -1751,7 +1756,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="3:6">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>107</v>
       </c>
@@ -1759,12 +1764,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="3:6">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="3:6" ht="30">
+    <row r="63" spans="3:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>113</v>
       </c>
@@ -1778,7 +1783,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="3:6" ht="30">
+    <row r="64" spans="3:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>114</v>
       </c>
@@ -1786,12 +1791,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="3:7">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C65" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="3:7" ht="30">
+    <row r="66" spans="3:7" ht="32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>111</v>
       </c>
@@ -1799,12 +1804,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="3:7">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C67" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="3:7" ht="45">
+    <row r="68" spans="3:7" ht="48" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>119</v>
       </c>
@@ -1818,7 +1823,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="3:7" ht="30">
+    <row r="69" spans="3:7" ht="32" x14ac:dyDescent="0.2">
       <c r="C69" s="5" t="s">
         <v>120</v>
       </c>
@@ -1826,7 +1831,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="3:7" ht="30">
+    <row r="70" spans="3:7" ht="32" x14ac:dyDescent="0.2">
       <c r="C70" s="5" t="s">
         <v>122</v>
       </c>
@@ -1840,7 +1845,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="3:7" ht="30">
+    <row r="71" spans="3:7" ht="32" x14ac:dyDescent="0.2">
       <c r="C71" s="5" t="s">
         <v>125</v>
       </c>
@@ -1854,12 +1859,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="3:7">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C72" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="3:7" ht="30">
+    <row r="73" spans="3:7" ht="32" x14ac:dyDescent="0.2">
       <c r="C73" s="5" t="s">
         <v>132</v>
       </c>
@@ -1867,7 +1872,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="74" spans="3:7">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C74" s="2" t="s">
         <v>134</v>
       </c>
@@ -1875,7 +1880,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="3:7">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C75" s="5" t="s">
         <v>136</v>
       </c>
@@ -1883,7 +1888,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="76" spans="3:7">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C76" s="5" t="s">
         <v>138</v>
       </c>
@@ -1891,7 +1896,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="3:7" ht="30">
+    <row r="77" spans="3:7" ht="32" x14ac:dyDescent="0.2">
       <c r="C77" s="5" t="s">
         <v>140</v>
       </c>
@@ -1899,7 +1904,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="78" spans="3:7">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C78" s="5" t="s">
         <v>142</v>
       </c>
@@ -1907,7 +1912,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="79" spans="3:7">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C79" s="5" t="s">
         <v>144</v>
       </c>
@@ -1915,7 +1920,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="80" spans="3:7">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C80" s="5" t="s">
         <v>146</v>
       </c>
@@ -1923,124 +1928,124 @@
         <v>147</v>
       </c>
     </row>
-    <row r="81" spans="3:6">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="3:6" ht="30">
+    <row r="82" spans="3:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C82" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D82" s="4" t="s">
+    </row>
+    <row r="83" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C83" s="5" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="83" spans="3:6" ht="30">
-      <c r="C83" s="5" t="s">
+      <c r="D83" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="84" spans="3:6">
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C84" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C85" s="5" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="85" spans="3:6" ht="30">
-      <c r="C85" s="5" t="s">
+      <c r="D85" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D85" s="4" t="s">
+    </row>
+    <row r="86" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C86" s="5" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="86" spans="3:6" ht="30">
-      <c r="C86" s="5" t="s">
+      <c r="D86" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D86" s="4" t="s">
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C87" s="5" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="87" spans="3:6">
-      <c r="C87" s="5" t="s">
+      <c r="D87" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="88" spans="3:6" ht="60">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" ht="64" x14ac:dyDescent="0.2">
       <c r="C88" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D88" s="4" t="s">
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C89" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="89" spans="3:6">
-      <c r="C89" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="3:6">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C90" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C91" s="5" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="91" spans="3:6">
-      <c r="C91" s="5" t="s">
+      <c r="D91" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D91" s="4" t="s">
+    </row>
+    <row r="92" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C92" s="5" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="92" spans="3:6" ht="30">
-      <c r="C92" s="5" t="s">
+      <c r="D92" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D92" s="4" t="s">
+    </row>
+    <row r="93" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C93" s="5" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="93" spans="3:6" ht="30">
-      <c r="C93" s="5" t="s">
+      <c r="D93" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D93" s="4" t="s">
+    </row>
+    <row r="94" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C94" s="5" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="94" spans="3:6" ht="30">
-      <c r="C94" s="5" t="s">
+      <c r="D94" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="95" spans="3:6">
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C95" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="96" spans="3:6">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C96" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="97" spans="2:7">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" s="1">
         <v>1</v>
       </c>
@@ -2051,29 +2056,29 @@
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="2:7">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="1">
         <v>1</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" ht="30">
+    </row>
+    <row r="99" spans="2:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B99" s="1">
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="100" spans="2:7" ht="30">
+    <row r="100" spans="2:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B100" s="1">
         <v>1</v>
       </c>
@@ -2090,7 +2095,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="101" spans="2:7">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101" s="1">
         <v>1</v>
       </c>
@@ -2101,393 +2106,388 @@
         <v>157</v>
       </c>
     </row>
-    <row r="102" spans="2:7">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C102" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103" s="1">
         <v>1</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="E103" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104" s="1">
         <v>1</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7" ht="30">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B105" s="1">
         <v>1</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D105" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7" ht="45">
+    </row>
+    <row r="106" spans="2:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B106" s="1">
         <v>1</v>
       </c>
       <c r="C106" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D106" s="4" t="s">
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C107" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C108" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="107" spans="2:7">
-      <c r="C107" s="2" t="s">
+      <c r="D108" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C109" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="108" spans="2:7">
-      <c r="C108" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7">
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D109" s="4" t="s">
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C110" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="110" spans="2:7">
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D110" s="4" t="s">
+    </row>
+    <row r="111" spans="2:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="C111" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="111" spans="2:7" ht="30">
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D111" s="4" t="s">
+    </row>
+    <row r="112" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="C112" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="112" spans="2:7" ht="45">
-      <c r="C112" s="1" t="s">
+      <c r="D112" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="113" spans="3:6">
+    </row>
+    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C113" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="114" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C114" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="114" spans="3:6" ht="30">
-      <c r="C114" s="1" t="s">
+      <c r="D114" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D114" s="4" t="s">
+    </row>
+    <row r="115" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C115" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="115" spans="3:6" ht="30">
-      <c r="C115" s="1" t="s">
+      <c r="D115" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D115" s="4" t="s">
+    </row>
+    <row r="116" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C116" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="116" spans="3:6" ht="30">
-      <c r="C116" s="1" t="s">
+      <c r="D116" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D116" s="4" t="s">
+    </row>
+    <row r="117" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C117" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="117" spans="3:6" ht="30">
-      <c r="C117" s="1" t="s">
+      <c r="D117" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D117" s="4" t="s">
+    </row>
+    <row r="118" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C118" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="118" spans="3:6">
-      <c r="C118" s="1" t="s">
+      <c r="D118" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D118" s="4" t="s">
+    </row>
+    <row r="119" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C119" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="119" spans="3:6" ht="30">
-      <c r="C119" s="1" t="s">
+      <c r="D119" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D119" s="4" t="s">
+    </row>
+    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C120" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="120" spans="3:6">
-      <c r="C120" s="1" t="s">
+      <c r="D120" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C121" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D120" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="121" spans="3:6">
-      <c r="C121" s="1" t="s">
+      <c r="D121" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D121" s="4" t="s">
+    </row>
+    <row r="122" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C122" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="122" spans="3:6" ht="30">
-      <c r="C122" s="1" t="s">
+      <c r="D122" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D122" s="4" t="s">
+    </row>
+    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C123" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="123" spans="3:6">
-      <c r="C123" s="1" t="s">
+      <c r="D123" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="E123" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="124" spans="3:6">
+    </row>
+    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C124" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="125" spans="3:6" ht="45">
+    <row r="125" spans="3:6" ht="48" x14ac:dyDescent="0.2">
       <c r="C125" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D125" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D125" s="4" t="s">
+    </row>
+    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C126" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="126" spans="3:6">
-      <c r="C126" s="1" t="s">
+      <c r="D126" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F126" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="127" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C127" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="127" spans="3:6" ht="30">
-      <c r="C127" s="1" t="s">
+      <c r="D127" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D127" s="4" t="s">
+    </row>
+    <row r="128" spans="3:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C128" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="128" spans="3:6" ht="30">
-      <c r="C128" s="1" t="s">
+      <c r="D128" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D128" s="4" t="s">
+    </row>
+    <row r="129" spans="3:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="C129" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C130" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="129" spans="3:4" ht="30">
-      <c r="C129" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="130" spans="3:4">
-      <c r="C130" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="131" spans="3:4">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C131" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D131" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D131" s="4" t="s">
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C132" s="5" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="132" spans="3:4">
-      <c r="C132" s="5" t="s">
+      <c r="D132" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D132" s="4" t="s">
+    </row>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C133" s="5" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="133" spans="3:4">
-      <c r="C133" s="5" t="s">
+      <c r="D133" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D133" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="134" spans="3:4">
+    </row>
+    <row r="134" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C134" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="135" spans="3:4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="135" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C135" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D135" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="D135" s="4" t="s">
+    </row>
+    <row r="136" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C136" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="136" spans="3:4">
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D136" s="4" t="s">
+    </row>
+    <row r="137" spans="3:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="C137" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="137" spans="3:4" ht="30">
-      <c r="C137" s="1" t="s">
+      <c r="D137" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="D137" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="138" spans="3:4">
+    </row>
+    <row r="138" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C138" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="139" spans="3:4" ht="30">
+    <row r="139" spans="3:4" ht="32" x14ac:dyDescent="0.2">
       <c r="C139" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D139" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="D139" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="141" spans="3:4">
+    </row>
+    <row r="141" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C141" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="142" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C142" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="142" spans="3:4">
-      <c r="C142" s="1" t="s">
+      <c r="D142" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="D142" s="4" t="s">
+    </row>
+    <row r="143" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C143" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D143" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="143" spans="3:4">
-      <c r="C143" s="1" t="s">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C144" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D143" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="144" spans="3:4">
-      <c r="C144" s="1" t="s">
+      <c r="D144" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D144" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="147" spans="3:4">
+    </row>
+    <row r="147" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C147" s="1" t="s">
         <v>158</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="150" spans="3:4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="150" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C150" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="151" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C151" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="151" spans="3:4">
-      <c r="C151" s="1" t="s">
+      <c r="D151" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="152" spans="3:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="C152" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D151" s="4" t="s">
+      <c r="D152" s="4" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="152" spans="3:4" ht="30">
-      <c r="C152" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>269</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>